--- a/DATA_goal/Junction_Flooding_78.xlsx
+++ b/DATA_goal/Junction_Flooding_78.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41510.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.37</v>
+        <v>4.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.31</v>
+        <v>3.43</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>50.4</v>
+        <v>5.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.2</v>
+        <v>2.42</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.87</v>
+        <v>2.19</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>230.71</v>
+        <v>23.07</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.5</v>
+        <v>4.35</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.77</v>
+        <v>2.88</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.32</v>
+        <v>2.53</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>44.68</v>
+        <v>4.47</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41510.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.44</v>
+        <v>2.64</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.39</v>
+        <v>2.14</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>38.84</v>
+        <v>3.88</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>139.18</v>
+        <v>13.92</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.55</v>
+        <v>1.86</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>35.39</v>
+        <v>3.54</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41510.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.95</v>
+        <v>2.1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.95</v>
+        <v>1.69</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.95</v>
+        <v>3.1</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.75</v>
+        <v>1.18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.45</v>
+        <v>0.75</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>108.27</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>14.08</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>6.19</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.09</v>
+        <v>2.81</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41510.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>59.07</v>
+        <v>5.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.64</v>
+        <v>1.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41510.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>26.27</v>
+        <v>2.63</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>21.45</v>
+        <v>2.15</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>34.85</v>
+        <v>3.49</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>136.86</v>
+        <v>13.69</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>26.41</v>
+        <v>2.64</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>17.04</v>
+        <v>1.7</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>31.41</v>
+        <v>3.14</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41510.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>28.17</v>
+        <v>2.82</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>23.05</v>
+        <v>2.31</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>39.35</v>
+        <v>3.94</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.95</v>
+        <v>0.7</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>147.18</v>
+        <v>14.72</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>28.39</v>
+        <v>2.84</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>19.04</v>
+        <v>1.9</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>8.65</v>
+        <v>0.87</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>35.72</v>
+        <v>3.57</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41510.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>43.44</v>
+        <v>4.34</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>35.71</v>
+        <v>3.57</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>59.71</v>
+        <v>5.97</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>24.2</v>
+        <v>2.42</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.01</v>
+        <v>1.6</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.45</v>
+        <v>1.74</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>230.74</v>
+        <v>23.07</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>43.71</v>
+        <v>4.37</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>29.45</v>
+        <v>2.95</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>29.24</v>
+        <v>2.92</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.3</v>
+        <v>1.83</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>54.17</v>
+        <v>5.42</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41510.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>37.59</v>
+        <v>3.76</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>30.89</v>
+        <v>3.09</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>53.9</v>
+        <v>5.39</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.85</v>
+        <v>1.38</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>19.3</v>
+        <v>1.93</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>198.7</v>
+        <v>19.87</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>37.88</v>
+        <v>3.79</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>25.52</v>
+        <v>2.55</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>26.04</v>
+        <v>2.6</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>48.96</v>
+        <v>4.9</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41510.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>37.6</v>
+        <v>3.76</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>30.91</v>
+        <v>3.09</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>53.45</v>
+        <v>5.35</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.35</v>
+        <v>0.93</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>19.3</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>198.7</v>
+        <v>19.87</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>37.87</v>
+        <v>3.79</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>25.53</v>
+        <v>2.55</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>25.87</v>
+        <v>2.59</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.75</v>
+        <v>0.97</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>48.51</v>
+        <v>4.85</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_78.xlsx
+++ b/DATA_goal/Junction_Flooding_78.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -457,17 +457,17 @@
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41510.34027777778</v>
+        <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2</v>
+        <v>0.09</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.35</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.24</v>
+        <v>0.13</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.43</v>
+        <v>0.29</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.04</v>
+        <v>0.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.42</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.04</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.04</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.67</v>
+        <v>0.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.56</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.19</v>
+        <v>0.16</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.06</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.07</v>
+        <v>0.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.35</v>
+        <v>0.31</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.88</v>
+        <v>0.09</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.03</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.53</v>
+        <v>0.09</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.05</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.35</v>
+        <v>0.08</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.72</v>
+        <v>0.1</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.47</v>
+        <v>0.27</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.31</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.8</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41510.34722222222</v>
+        <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.76</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.64</v>
+        <v>1.6</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.14</v>
+        <v>1.4</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.54</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.88</v>
+        <v>1.74</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.88</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.06</v>
+        <v>0.76</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.74</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.57</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.88</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.49</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13.92</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.7</v>
+        <v>1.67</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.57</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.78</v>
+        <v>1.08</v>
       </c>
       <c r="X3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.86</v>
-      </c>
       <c r="AA3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.51</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.09</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.54</v>
+        <v>1.6</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41510.35416666666</v>
+        <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.53</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.83</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="X4" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.87</v>
-      </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.81</v>
+        <v>2.2</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41510.36111111111</v>
+        <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.2</v>
+        <v>2.37</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.96</v>
+        <v>1.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.84</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.93</v>
+        <v>3.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.67</v>
+        <v>1.31</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="O5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.85</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB5" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AC5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.5</v>
+        <v>1.01</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.76</v>
+        <v>2.99</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41510.36805555555</v>
+        <v>44781.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.21</v>
+        <v>10.6</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.88</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.63</v>
+        <v>22.71</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.15</v>
+        <v>19.07</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.95</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.49</v>
+        <v>32.6</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.47</v>
+        <v>12.6</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.64</v>
+        <v>5.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.95</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.06</v>
+        <v>9.52</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.11</v>
+        <v>9.9</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.3</v>
+        <v>2.72</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.95</v>
+        <v>8.15</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.34</v>
+        <v>11.98</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>6.84</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>13.69</v>
+        <v>118.42</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.64</v>
+        <v>23.17</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.87</v>
+        <v>7.74</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.77</v>
+        <v>15.55</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.93</v>
+        <v>8.09</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.15</v>
+        <v>1.08</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.7</v>
+        <v>16</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.77</v>
+        <v>6.74</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.1</v>
+        <v>9.66</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.14</v>
+        <v>29.92</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.49</v>
+        <v>4.77</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41510.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41510.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>23.07</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41510.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41510.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41510.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>71.67</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>5.99</v>
+        <v>9.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_78.xlsx
+++ b/DATA_goal/Junction_Flooding_78.xlsx
@@ -443,18 +443,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -467,11 +467,11 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>83.69</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.84</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.87</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.6</v>
+        <v>16.04</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.36</v>
+        <v>23.59</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.33</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>89.67</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.92</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.87</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.2</v>
+        <v>22</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.37</v>
+        <v>23.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.26</v>
+        <v>32.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.41</v>
+        <v>124.08</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.42</v>
+        <v>24.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.23</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.05</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.99</v>
+        <v>29.95</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_78.xlsx
+++ b/DATA_goal/Junction_Flooding_78.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,73 +655,73 @@
         <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.1</v>
@@ -730,28 +730,28 @@
         <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
         <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.58</v>
+        <v>7.584</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>6.38</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.217</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.95</v>
+        <v>15.953</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.98</v>
+        <v>13.984</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.36</v>
+        <v>5.357</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.36</v>
+        <v>17.364</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.802</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.99</v>
+        <v>3.994</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.76</v>
+        <v>5.756</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.6</v>
+        <v>7.604</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.44</v>
+        <v>7.435</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.2</v>
+        <v>2.196</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.74</v>
+        <v>5.744</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>8.76</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.92</v>
+        <v>4.923</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.642</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.053</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>83.69</v>
+        <v>83.69199999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.69</v>
+        <v>16.686</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.71</v>
+        <v>5.708</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.84</v>
+        <v>10.842</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.6</v>
+        <v>5.599</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>9.33</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.87</v>
+        <v>4.875</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.08</v>
+        <v>4.085</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.08</v>
+        <v>5.077</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.91</v>
+        <v>6.913</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.04</v>
+        <v>16.036</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.26</v>
+        <v>4.259</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.61</v>
+        <v>6.605</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.16</v>
+        <v>8.156000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.51</v>
+        <v>6.507</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.226</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>17.28</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.79</v>
+        <v>14.788</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.97</v>
+        <v>5.968</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.59</v>
+        <v>23.588</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.553000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.33</v>
+        <v>4.328</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>6.28</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.77</v>
+        <v>7.768</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.2</v>
+        <v>2.196</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.2</v>
+        <v>6.196</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.33</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.27</v>
+        <v>5.268</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.47</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>89.67</v>
+        <v>89.666</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.92</v>
+        <v>17.924</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.04</v>
+        <v>6.037</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.87</v>
+        <v>11.872</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.12</v>
+        <v>6.123</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.827</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.03</v>
+        <v>12.027</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.2</v>
+        <v>5.199</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.41</v>
+        <v>4.407</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.42</v>
+        <v>5.415</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.41</v>
+        <v>7.414</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22</v>
+        <v>22.001</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.15</v>
+        <v>7.153</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.42</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_78.xlsx
+++ b/DATA_goal/Junction_Flooding_78.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -453,15 +453,15 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,103 +967,207 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.56</v>
+        <v>8.564</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.68</v>
+        <v>23.682</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.95</v>
+        <v>19.946</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.35</v>
+        <v>8.353999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.6</v>
+        <v>32.605</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>13.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.91</v>
+        <v>5.909</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.698</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.03</v>
+        <v>10.026</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.37</v>
+        <v>10.373</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.87</v>
+        <v>2.867</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.5</v>
+        <v>8.496</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.53</v>
+        <v>12.531</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.15</v>
+        <v>7.147</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.202</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.08</v>
+        <v>124.084</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.18</v>
+        <v>24.185</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.1</v>
+        <v>8.099</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.19</v>
+        <v>16.188</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.42</v>
+        <v>8.422000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.127</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.23</v>
+        <v>16.231</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.04</v>
+        <v>7.044</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.05</v>
+        <v>6.052</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.32</v>
+        <v>7.319</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.09</v>
+        <v>10.086</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.95</v>
+        <v>29.949</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.07</v>
+        <v>5.071</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.81</v>
+        <v>9.811999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>118.42</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_78.xlsx
+++ b/DATA_goal/Junction_Flooding_78.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -453,15 +453,15 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
@@ -967,207 +967,103 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.069</v>
+        <v>11.07</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.564</v>
+        <v>8.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.323</v>
+        <v>0.32</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.682</v>
+        <v>23.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.946</v>
+        <v>19.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.353999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.605</v>
+        <v>32.6</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>13.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.909</v>
+        <v>5.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.698</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.026</v>
+        <v>10.03</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.373</v>
+        <v>10.37</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.867</v>
+        <v>2.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.496</v>
+        <v>8.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.531</v>
+        <v>12.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.147</v>
+        <v>7.15</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.202</v>
+        <v>0.2</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.084</v>
+        <v>124.08</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.185</v>
+        <v>24.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.099</v>
+        <v>8.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.188</v>
+        <v>16.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.422000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.127</v>
+        <v>1.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.231</v>
+        <v>16.23</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.044</v>
+        <v>7.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.052</v>
+        <v>6.05</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.319</v>
+        <v>7.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.086</v>
+        <v>10.09</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.949</v>
+        <v>29.95</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.071</v>
+        <v>5.07</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.811999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.42</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.41</v>
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>
